--- a/app/Helpers/Excel/template/t_nyusyuko__zaiko_list.xlsx
+++ b/app/Helpers/Excel/template/t_nyusyuko__zaiko_list.xlsx
@@ -18,7 +18,7 @@
     <definedName name="YAJI_MT_登録仕訳">#REF!</definedName>
     <definedName name="ああ">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -75,8 +75,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yy/m/d\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="yy&quot;年&quot;m&quot;月&quot;d&quot;日　現在&quot;;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -253,12 +253,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -271,35 +297,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,9 +582,7 @@
   </sheetPr>
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
@@ -605,32 +603,32 @@
     <row r="1" spans="1:14" ht="11.1" customHeight="1"/>
     <row r="2" spans="1:14" ht="11.1" customHeight="1">
       <c r="B2" s="2"/>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="11.1" customHeight="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
@@ -638,98 +636,98 @@
       <c r="B5" s="20"/>
     </row>
     <row r="6" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
     </row>
     <row r="7" spans="1:14" ht="11.1" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="29"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:14" ht="11.1" customHeight="1" thickBot="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="31"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
     </row>
     <row r="9" spans="1:14" ht="11.1" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="5"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="11.1" customHeight="1" thickBot="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="6"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
     </row>
     <row r="11" spans="1:14" ht="11.1" customHeight="1">
       <c r="A11" s="7"/>
@@ -1340,36 +1338,36 @@
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" ht="11.1" customHeight="1">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
     </row>
     <row r="50" spans="1:14" ht="11.1" customHeight="1">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
     </row>
     <row r="51" spans="1:14" ht="11.1" customHeight="1"/>
     <row r="52" spans="1:14" ht="11.1" customHeight="1"/>
@@ -1380,37 +1378,50 @@
       <c r="B55" s="16"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
     </row>
     <row r="56" spans="1:14" ht="11.1" customHeight="1" thickBot="1">
       <c r="A56" s="17"/>
       <c r="B56" s="18"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="23"/>
+      <c r="E56" s="29"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="6"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C2:K3"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="M9:N10"/>
     <mergeCell ref="K55:K56"/>
     <mergeCell ref="L2:M2"/>
@@ -1427,19 +1438,6 @@
     <mergeCell ref="M7:N8"/>
     <mergeCell ref="L55:L56"/>
     <mergeCell ref="M55:N56"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C2:K3"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
